--- a/Datasets/Passport.xlsx
+++ b/Datasets/Passport.xlsx
@@ -1,25 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohan_Folders\Education\BTech_Engineering\16th Standard_TSEC_4th Year(BE)\Semester VIII\TSEC\Major Project(PR)\Main\Document-Verification-OCR\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E356D4-9F0A-47C6-A55A-27E46CF98308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Passport Type</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>BAJAJ</t>
+  </si>
+  <si>
+    <t>ROHAN SANJAY</t>
+  </si>
+  <si>
+    <t>BAFNA</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>RAMDIN</t>
+  </si>
+  <si>
+    <t>BIRENDER</t>
+  </si>
+  <si>
+    <t>KASID</t>
+  </si>
+  <si>
+    <t>SHIV</t>
+  </si>
+  <si>
+    <t>VIKRAM</t>
+  </si>
+  <si>
+    <t>SANJAY</t>
+  </si>
+  <si>
+    <t>ABHI</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>CHANDERPAL</t>
+  </si>
+  <si>
+    <t>AMAN</t>
+  </si>
+  <si>
+    <t>RAJEEV</t>
+  </si>
+  <si>
+    <t>DURGESH</t>
+  </si>
+  <si>
+    <t>NAHAR</t>
+  </si>
+  <si>
+    <t>SUNDER</t>
+  </si>
+  <si>
+    <t>MAANSINGH</t>
+  </si>
+  <si>
+    <t>VERMA</t>
+  </si>
+  <si>
+    <t>CHANDRAN</t>
+  </si>
+  <si>
+    <t>MANDAL</t>
+  </si>
+  <si>
+    <t>PRAKASH</t>
+  </si>
+  <si>
+    <t>SINGH</t>
+  </si>
+  <si>
+    <t>DUTT</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>PAAL</t>
+  </si>
+  <si>
+    <t>ASWAL</t>
+  </si>
+  <si>
+    <t>SHIVANI</t>
+  </si>
+  <si>
+    <t>AMITA</t>
+  </si>
+  <si>
+    <t>TANDON</t>
+  </si>
+  <si>
+    <t>DODEJA</t>
+  </si>
+  <si>
+    <t>KHUSHAL</t>
+  </si>
+  <si>
+    <t>UMAR</t>
+  </si>
+  <si>
+    <t>SONALI</t>
+  </si>
+  <si>
+    <t>MALANI</t>
+  </si>
+  <si>
+    <t>BHOOMIKA</t>
+  </si>
+  <si>
+    <t>SHUBHA</t>
+  </si>
+  <si>
+    <t>AGARWAL</t>
+  </si>
+  <si>
+    <t>MALHOTRA</t>
+  </si>
+  <si>
+    <t>ANAYA</t>
+  </si>
+  <si>
+    <t>SUKRANI</t>
+  </si>
+  <si>
+    <t>CHANDAN</t>
+  </si>
+  <si>
+    <t>PUNJABI</t>
+  </si>
+  <si>
+    <t>B5649076</t>
+  </si>
+  <si>
+    <t>O528485</t>
+  </si>
+  <si>
+    <t>L1114025</t>
+  </si>
+  <si>
+    <t>B261912</t>
+  </si>
+  <si>
+    <t>Y0920347</t>
+  </si>
+  <si>
+    <t>S2921566</t>
+  </si>
+  <si>
+    <t>Q416022</t>
+  </si>
+  <si>
+    <t>G67C34857</t>
+  </si>
+  <si>
+    <t>V4020218</t>
+  </si>
+  <si>
+    <t>MU2943007</t>
+  </si>
+  <si>
+    <t>K44356203</t>
+  </si>
+  <si>
+    <t>Z4087398</t>
+  </si>
+  <si>
+    <t>YZ0399481</t>
+  </si>
+  <si>
+    <t>GGD367097</t>
+  </si>
+  <si>
+    <t>E52215940</t>
+  </si>
+  <si>
+    <t>M3O369056</t>
+  </si>
+  <si>
+    <t>XF4383350</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +293,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +586,866 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>64257</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
+        <f>DATE(YEAR(F3)+10,MONTH(F3),DAY(F3))</f>
+        <v>67910</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>46998</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I60" si="0">DATE(YEAR(F4)+10,MONTH(F4),DAY(F4))</f>
+        <v>50650</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42403</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21824</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>25477</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>49773</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>53425</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>51594</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>55246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11785</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3150943</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>15437</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>19608</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>23260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>65540</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>69193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>54102</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>57755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>31837</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>35490</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10397</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>14049</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9557</v>
+      </c>
+      <c r="G15" s="4">
+        <v>967040</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>13210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3745</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>7398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>58506</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>62158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
+        <v>59049</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>62701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>54863</v>
+      </c>
+      <c r="G19" s="4">
+        <v>63314</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>58516</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6379</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4473455</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>72930</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>76582</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>27062</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8134131</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>30714</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>50066</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>53718</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2">
+        <v>53420</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3410357</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>57073</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3168</v>
+      </c>
+      <c r="G25" s="4">
+        <v>8472046</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <v>65540</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>69193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="4"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G85" s="4"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G87" s="4"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G89" s="4"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G91" s="4"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G95" s="4"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G97" s="4"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="4"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="4"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G103" s="4"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G105" s="4"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G107" s="4"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G109" s="4"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="4"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="4"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G115" s="4"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G119" s="4"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G121" s="4"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G123" s="4"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G127" s="4"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G129" s="4"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G131" s="4"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="4"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G135" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>